--- a/documentation/design_docs/requirements_traceability_matrix.xlsx
+++ b/documentation/design_docs/requirements_traceability_matrix.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23820" windowHeight="9855"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23820" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement_Traceability_Matrix" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Assumptions and Limitations" sheetId="2" r:id="rId2"/>
+    <sheet name="Pages" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
   <si>
     <t>Req. No.</t>
   </si>
@@ -55,6 +55,417 @@
   </si>
   <si>
     <t>Login page: LOG IN button, IF authentication is successful, when clicked should proceed to Dashboard.</t>
+  </si>
+  <si>
+    <t>DB001</t>
+  </si>
+  <si>
+    <t>DB002</t>
+  </si>
+  <si>
+    <t>DB003</t>
+  </si>
+  <si>
+    <t>DB004</t>
+  </si>
+  <si>
+    <t>DB005</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t>Admin Dashboard page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Top right corner: Icon profile pic of logged in user: ON CLICK should take to My Account page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Top right corner: &lt;Name Field&gt;: Should contain the name of the signed in person. ON CLICK should take to My Account page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Top right corner: MY ACCOUNT: ON CLICK should take to My Account page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SHIFTFEED (Top Left): ON CLICK should take user back to Admin Dashboard page</t>
+  </si>
+  <si>
+    <t>Admin Dashboard page: Left Sidebar</t>
+  </si>
+  <si>
+    <t>Icon profile pic. ON CLICK should take to My Account page</t>
+  </si>
+  <si>
+    <t>&lt;Name field&gt;: Name of the signed in person. ON CLICK should take them to My Account page</t>
+  </si>
+  <si>
+    <t>&lt;Role field&gt;: User's designated role (eg. Admin/Employee/Supervisor etc.)</t>
+  </si>
+  <si>
+    <t>&lt;Team field&gt;: Name of the team the user is part of (eg. Animation/Design/Support)</t>
+  </si>
+  <si>
+    <t>DB006</t>
+  </si>
+  <si>
+    <t>DB007</t>
+  </si>
+  <si>
+    <t>DB008</t>
+  </si>
+  <si>
+    <t>DB009</t>
+  </si>
+  <si>
+    <t>SHIFTS Link: ON CLICK: go to Shifts management page</t>
+  </si>
+  <si>
+    <t>USERS Link: ON CLICK: go to User management page</t>
+  </si>
+  <si>
+    <t>TEAMS Link: ON CLICK: go to Team management page</t>
+  </si>
+  <si>
+    <t>NOTIFICATIONS Link: ON CLICK: go to Notifications page</t>
+  </si>
+  <si>
+    <t>CALENDAR Link: Go to calendar page</t>
+  </si>
+  <si>
+    <t>DB010</t>
+  </si>
+  <si>
+    <t>DB011</t>
+  </si>
+  <si>
+    <t>DB012</t>
+  </si>
+  <si>
+    <t>DB013</t>
+  </si>
+  <si>
+    <t>DB014</t>
+  </si>
+  <si>
+    <t>DB015</t>
+  </si>
+  <si>
+    <t>Admin Dashboard page: Main Layout</t>
+  </si>
+  <si>
+    <t>RECENT NOTIFICATIONS Section</t>
+  </si>
+  <si>
+    <t>ALL NOTIFICATIONS Link: ON CLICK: Take to Notification page</t>
+  </si>
+  <si>
+    <t>&lt;for each:&gt; Notification</t>
+  </si>
+  <si>
+    <t>Icon profile pic. ON CLICK should take to User profile page</t>
+  </si>
+  <si>
+    <t>&lt;Name field&gt;: Name of the notifying user. ON CLICK should take to the user's Profile page</t>
+  </si>
+  <si>
+    <t>&lt;Notification message&gt;: Text containing notification message from user.</t>
+  </si>
+  <si>
+    <t>&lt;SENT DATE-TIME&gt;: Contains the day, date and time of message (Sent on: Mon, 23 Jan 2013 at 05:45 PM EST)</t>
+  </si>
+  <si>
+    <t>SENT TO: Members of Shift: LIST of shift DATE-TIME(s)</t>
+  </si>
+  <si>
+    <t>MEMBERS OF SHIFTS: LIST of members in the above said shifts. Their names are clickable: ON CLICK takes to their respective profile pages</t>
+  </si>
+  <si>
+    <t>MESSAGE DETAILS Link: ON CLICK TOGGLES opening of a section (below) showing following details</t>
+  </si>
+  <si>
+    <t>RECENT SHIFT REQUESTS Section</t>
+  </si>
+  <si>
+    <t>Show only 3 most recent notifications (max). IF no notifications for 2 weeks from current date, then show "NO RECENT NOTIFICATIONS". IF no notifications at all in the past, show "NO NOTIFICATIONS"</t>
+  </si>
+  <si>
+    <t>DB016</t>
+  </si>
+  <si>
+    <t>DB017</t>
+  </si>
+  <si>
+    <t>DB018</t>
+  </si>
+  <si>
+    <t>DB019</t>
+  </si>
+  <si>
+    <t>DB020</t>
+  </si>
+  <si>
+    <t>DB021</t>
+  </si>
+  <si>
+    <t>DB022</t>
+  </si>
+  <si>
+    <t>DB023</t>
+  </si>
+  <si>
+    <t>DB024</t>
+  </si>
+  <si>
+    <t>Show only 3 most recent shift requests. IF no shift requests for 2 weeks from current date, then show "NO RECENT SHIFT REQUESTS". IF no shift requests at all in the past, show "NO SHIFT REQUESTS"</t>
+  </si>
+  <si>
+    <t>&lt;for each:&gt; Shift request</t>
+  </si>
+  <si>
+    <t>&lt;SENT DATE-TIME&gt;: Contains REQUESTED SHIFT TIMINGS (ex. 09:00 AM EST, Mon, 12 Dec 2013 - 05:00 PM EST, Mon, 12 Dec 2013)</t>
+  </si>
+  <si>
+    <t>TYPE OF REQUEST: &lt;Request Type&gt; (SHIFT REQUEST/ LEAVE REQUEST)</t>
+  </si>
+  <si>
+    <t>&lt;Comments&gt;: Text containing comments(message) from requesting user.</t>
+  </si>
+  <si>
+    <t>Each company has only 1 ShiftFeed installation</t>
+  </si>
+  <si>
+    <t>Each company has its own ShiftFeed installation</t>
+  </si>
+  <si>
+    <t>Only admins can assign shifts</t>
+  </si>
+  <si>
+    <t>Each Team can have many Users</t>
+  </si>
+  <si>
+    <t>Each User can be only in 1 Team</t>
+  </si>
+  <si>
+    <t>Shift Plan always runs only for whole Team(s)</t>
+  </si>
+  <si>
+    <t>Assumptions and Limitations</t>
+  </si>
+  <si>
+    <t>No shift change requests are entertained</t>
+  </si>
+  <si>
+    <t>Show only if shift request is for a date for which the Plan Shift has NOT been run yet.</t>
+  </si>
+  <si>
+    <t>MY ACCOUNT Page</t>
+  </si>
+  <si>
+    <t>Lunch/break hours are included in all work hour calculations</t>
+  </si>
+  <si>
+    <t>Left sidebar same as Dashboard page</t>
+  </si>
+  <si>
+    <t>MY ACCOUNT Page: Main Layout</t>
+  </si>
+  <si>
+    <t>Icon profile pic. ON CLICK should bring up file picker dialog. On selection of image file, check for image file type and size; IF right size/type, replace profile pic with selected, ELSE display error response</t>
+  </si>
+  <si>
+    <t>AC001</t>
+  </si>
+  <si>
+    <t>AC002</t>
+  </si>
+  <si>
+    <t>FIRST NAME: &lt;Text Field&gt; string</t>
+  </si>
+  <si>
+    <t>LAST NAME: &lt;Text Field&gt; string</t>
+  </si>
+  <si>
+    <t>Roles can be created/modified/deleted by the admins ONLY</t>
+  </si>
+  <si>
+    <t>Teams can be created/modified/deleted by the admins ONLY</t>
+  </si>
+  <si>
+    <t>Users can be created/deleted by the admins ONLY</t>
+  </si>
+  <si>
+    <t>Users who are NOT admins can only modify their account details</t>
+  </si>
+  <si>
+    <t>Users who are NOT admins cannot modify ALL their details (details are listed later)</t>
+  </si>
+  <si>
+    <t>EMPLOYEE ID: &lt;Text Field&gt; takes input of type STRING. NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t>ROLE: &lt;Drop-down List Field&gt; LIST of Roles (defined by admin). NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t>Every user needs to have minimum of 2 off days per week</t>
+  </si>
+  <si>
+    <t>Every user HAS to have 2 preferred off days</t>
+  </si>
+  <si>
+    <t>PREFERRED OFF DAYS: &lt;Multiple select List&gt; LIST of days of the week (Mon - Sun). Assumption limit: (2 - 2). Default: Saturday, Sunday</t>
+  </si>
+  <si>
+    <t>AC003</t>
+  </si>
+  <si>
+    <t>AC004</t>
+  </si>
+  <si>
+    <t>AC005</t>
+  </si>
+  <si>
+    <t>AC006</t>
+  </si>
+  <si>
+    <t>AC007</t>
+  </si>
+  <si>
+    <t>AC008</t>
+  </si>
+  <si>
+    <t>AC009</t>
+  </si>
+  <si>
+    <t>AC010</t>
+  </si>
+  <si>
+    <t>AC011</t>
+  </si>
+  <si>
+    <t>AC012</t>
+  </si>
+  <si>
+    <t>AC013</t>
+  </si>
+  <si>
+    <t>DB025</t>
+  </si>
+  <si>
+    <t>DB026</t>
+  </si>
+  <si>
+    <t>DB027</t>
+  </si>
+  <si>
+    <t>DB028</t>
+  </si>
+  <si>
+    <t>DB029</t>
+  </si>
+  <si>
+    <t>DB030</t>
+  </si>
+  <si>
+    <t>DB031</t>
+  </si>
+  <si>
+    <t>DEFAULT AVAILABILITY TIME Total hours should be &lt;= MAX WORKDAY HOURS, AND should be &gt;= MIN WORKDAY HOURS</t>
+  </si>
+  <si>
+    <t>AC014</t>
+  </si>
+  <si>
+    <t>AC015</t>
+  </si>
+  <si>
+    <t>MIN WORKDAY HOURS: &lt;Text Field&gt; 0.2float (limits: 0 - 24). NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t>MAX WORKDAY HOURS: &lt;Text Field&gt; 0.2float (limits: 0 - 24). NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t>IDEAL WORKDAY HOURS: &lt;Text Field&gt; 0.2float (limits: 0 - 24). NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t>MAX WEEKLY HOURS: &lt;Text Field&gt; 0.2float (limits: 0 - 24). NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t>DEFAULT AVAILABILITY TIME: START TIME: &lt;Time: hh:mm&gt;. NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t>DEFAULT AVAILABILITY TIME: END TIME: &lt;Time: hh:mm&gt;. Condition: Must be &gt;= START TIME. NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t>TEAM: &lt;Drop-down List Field&gt; LIST of Team names (can select only 1). Default value: NONE. NON-Admins cannot edit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Top right corner: LOG OUT: ON CLICK should log out the user and take them back to the login page, with a message notifying successful logout.</t>
+  </si>
+  <si>
+    <t>MY ACCOUNT Link: ON CLICK should take to current user's My Profile page</t>
+  </si>
+  <si>
+    <t>Icon profile pic. ON CLICK should take to User account page</t>
+  </si>
+  <si>
+    <t>&lt;Name field&gt;: Name of the notifying user. ON CLICK should take to the user's account page</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>dashboard/account</t>
+  </si>
+  <si>
+    <t>dashboard/users</t>
+  </si>
+  <si>
+    <t>dashboard/shifts</t>
+  </si>
+  <si>
+    <t>dashboard/teams</t>
+  </si>
+  <si>
+    <t>dashboard/notifications</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>dashboard/calendar</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Shows the important links of the web application on the left bar. Shows recent notifications and recent shift requests</t>
+  </si>
+  <si>
+    <t>Shows current user's account settings and profile settings. For Non-admins, only few fields are editable.</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Admins</t>
+  </si>
+  <si>
+    <t>Admins, Users</t>
+  </si>
+  <si>
+    <t>Team management page.</t>
+  </si>
+  <si>
+    <t>Notifications page.</t>
+  </si>
+  <si>
+    <t>Shift management page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -83,7 +494,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -133,6 +550,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,203 +911,874 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="45">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="30">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="30">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="30">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="30">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="30">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -669,24 +1788,247 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="54.85546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="30">
+      <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="30">
+      <c r="B11" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="30">
+      <c r="B12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="30">
+      <c r="B14" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="30">
+      <c r="B15" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/design_docs/requirements_traceability_matrix.xlsx
+++ b/documentation/design_docs/requirements_traceability_matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23820" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23820" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement_Traceability_Matrix" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>Req. No.</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Every user can be in only 1 shift per day. This shift needs to be contiguous.</t>
   </si>
 </sst>
 </file>
@@ -1788,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B17"/>
+  <dimension ref="B2:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1805,79 +1808,123 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="30">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="30">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="30">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="30">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="30">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="18" spans="2:2" ht="30">
+      <c r="B18" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1888,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/documentation/design_docs/requirements_traceability_matrix.xlsx
+++ b/documentation/design_docs/requirements_traceability_matrix.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23820" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23820" windowHeight="9855" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement_Traceability_Matrix" sheetId="1" r:id="rId1"/>
     <sheet name="Assumptions and Limitations" sheetId="2" r:id="rId2"/>
     <sheet name="Pages" sheetId="3" r:id="rId3"/>
+    <sheet name="Platforms_and_Environements" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="184">
   <si>
     <t>Req. No.</t>
   </si>
@@ -469,6 +470,105 @@
   </si>
   <si>
     <t>Every user can be in only 1 shift per day. This shift needs to be contiguous.</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Platform choice</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Webserver</t>
+  </si>
+  <si>
+    <t>Resources and references</t>
+  </si>
+  <si>
+    <t>Reason(s)</t>
+  </si>
+  <si>
+    <t>Apache + mod_wsgi</t>
+  </si>
+  <si>
+    <t>Web application framework</t>
+  </si>
+  <si>
+    <t>REST service/API</t>
+  </si>
+  <si>
+    <t>Own Django based API? Django rest framework? Tasty-pie?</t>
+  </si>
+  <si>
+    <t>HTML5</t>
+  </si>
+  <si>
+    <t>CSS3</t>
+  </si>
+  <si>
+    <t>Factors to consider (For ShiftFeed)</t>
+  </si>
+  <si>
+    <t>Angular JS? Ember JS? Backbone JS? jQuery?</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>MySQL? CouchDB? MongoDB? PostgreSQL?</t>
+  </si>
+  <si>
+    <t>Apache + mod_wsgi? Fastcgi? Lighttpd?</t>
+  </si>
+  <si>
+    <t>Django python? PHP based? RoR? Grails?</t>
+  </si>
+  <si>
+    <t>CSS3?</t>
+  </si>
+  <si>
+    <t>Web front end (Markup)</t>
+  </si>
+  <si>
+    <t>Web front end (Presentation)</t>
+  </si>
+  <si>
+    <t>Web front end (Logic/Dynamics)</t>
+  </si>
+  <si>
+    <t>HTML5? HTML4?</t>
+  </si>
+  <si>
+    <t>Simple. Symantically ready. Feature rich.</t>
+  </si>
+  <si>
+    <t>Cutting edge look and feel, cross browser compliant. Mobile compliant.</t>
+  </si>
+  <si>
+    <t>Angular JS</t>
+  </si>
+  <si>
+    <t>AJAX, DOM manipulation, UI Widgets, animations, drag and drop, inpu handling/validating, quick development, good maintainability, scalability, solid light framework, cross browser compliant, mobile compliant. Backend compliant.</t>
+  </si>
+  <si>
+    <t>Developed by Google. Quicker, intuitive  development. Not too bloated - fit for the application's current needs.</t>
+  </si>
+  <si>
+    <t>Simple. Transparent underlying working. Robust, helps with authentications.</t>
+  </si>
+  <si>
+    <t>Fast. Powerful. Robust. Scalable. Strong community support. Open source. Varied stack support.</t>
+  </si>
+  <si>
+    <t>Fast. Powerful. Relational. Open source. Strong community support. Tried and tested. Generic. Popular. Easy integration and setup. Easy maintenance.</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -593,6 +693,87 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>400049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Architecture_001.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="157398"/>
+          <a:ext cx="3257550" cy="3652601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>499565</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>540524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>226199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Architecture_002.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15872915" y="180974"/>
+          <a:ext cx="3088959" cy="3455175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1793,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1936,7 +2117,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2078,4 +2259,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="22.42578125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="29" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="28.5">
+      <c r="B2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="120">
+      <c r="B3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="75">
+      <c r="B4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30">
+      <c r="B5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="60">
+      <c r="B6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30">
+      <c r="B7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="60">
+      <c r="B8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="180">
+      <c r="B9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>